--- a/皇冠-数据库结构.xlsx
+++ b/皇冠-数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" tabRatio="719" activeTab="2"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" tabRatio="719" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -2838,9 +2838,6 @@
     <xf numFmtId="0" fontId="28" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2869,6 +2866,9 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="70">
@@ -3261,15 +3261,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3543,15 +3543,15 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -3647,15 +3647,15 @@
       <c r="G27" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -3721,15 +3721,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
     </row>
     <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -3861,15 +3861,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3913,11 +3913,11 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:7" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>334</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3931,10 +3931,10 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>336</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3948,10 +3948,10 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>339</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3965,10 +3965,10 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>342</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3982,10 +3982,10 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>346</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3994,18 +3994,18 @@
       <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -4049,11 +4049,11 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:7" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>352</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -4069,10 +4069,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>355</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -4086,10 +4086,10 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>357</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -4103,10 +4103,10 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>359</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -4122,15 +4122,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -4174,11 +4174,11 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+    <row r="27" spans="1:7" s="42" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="41" t="s">
         <v>367</v>
       </c>
       <c r="C27" s="21" t="s">
@@ -4259,8 +4259,8 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" s="43" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
+    <row r="32" spans="1:7" s="42" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
         <v>379</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -4272,18 +4272,18 @@
       <c r="D32" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="44"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="45" t="s">
         <v>381</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -4553,11 +4553,11 @@
         <v>421</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="37" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="35" t="s">
+    <row r="55" spans="1:7" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="37" t="s">
         <v>422</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -4566,7 +4566,7 @@
       <c r="D55" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="G55" s="44" t="s">
+      <c r="G55" s="43" t="s">
         <v>423</v>
       </c>
     </row>
@@ -4585,15 +4585,15 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="45" t="s">
         <v>426</v>
       </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -4758,11 +4758,11 @@
       </c>
       <c r="G70" s="24"/>
     </row>
-    <row r="71" spans="1:7" s="37" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="35" t="s">
+    <row r="71" spans="1:7" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="37" t="s">
         <v>450</v>
       </c>
       <c r="C71" s="6" t="s">
@@ -4771,7 +4771,7 @@
       <c r="D71" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="45"/>
+      <c r="G71" s="44"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="25" t="s">
@@ -4805,7 +4805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -4821,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4836,15 +4836,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4980,15 +4980,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -5200,15 +5200,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -5308,15 +5308,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -5534,15 +5534,15 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -5939,15 +5939,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6125,15 +6125,15 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
